--- a/test/ElectricityBill.xlsx
+++ b/test/ElectricityBill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EV\ev-feel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ev-found\ev-feel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -83,7 +83,7 @@
     <t>getAmount(200,Units,7,Units)</t>
   </si>
   <si>
-    <t>function(a,b,c,d) if d &gt; a then min([d - a, b])*c else 0</t>
+    <t>function(a,b,c,d) if d &gt; a then min([d - a, b - a])*c else 0</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
